--- a/sim1results.xlsx
+++ b/sim1results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2637,6 +2637,3015 @@
         <v>0.6410929648</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.97</v>
+      </c>
+      <c r="B39">
+        <v>0.77</v>
+      </c>
+      <c r="C39">
+        <v>0.8</v>
+      </c>
+      <c r="D39">
+        <v>0.77</v>
+      </c>
+      <c r="E39">
+        <v>0.74</v>
+      </c>
+      <c r="F39">
+        <v>0.72</v>
+      </c>
+      <c r="G39">
+        <v>0.6007356784</v>
+      </c>
+      <c r="H39">
+        <v>0.6101211055</v>
+      </c>
+      <c r="I39">
+        <v>0.93</v>
+      </c>
+      <c r="J39">
+        <v>0.55</v>
+      </c>
+      <c r="K39">
+        <v>0.5401155779</v>
+      </c>
+      <c r="L39">
+        <v>0.86</v>
+      </c>
+      <c r="M39">
+        <v>0.5399396985</v>
+      </c>
+      <c r="N39">
+        <v>0.3598492462</v>
+      </c>
+      <c r="O39">
+        <v>0.3296005025</v>
+      </c>
+      <c r="P39">
+        <v>0.3795984925</v>
+      </c>
+      <c r="Q39">
+        <v>0.71</v>
+      </c>
+      <c r="R39">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S39">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.8</v>
+      </c>
+      <c r="C40">
+        <v>0.79</v>
+      </c>
+      <c r="D40">
+        <v>0.75</v>
+      </c>
+      <c r="E40">
+        <v>0.65</v>
+      </c>
+      <c r="F40">
+        <v>0.65</v>
+      </c>
+      <c r="G40">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I40">
+        <v>0.91</v>
+      </c>
+      <c r="J40">
+        <v>0.48</v>
+      </c>
+      <c r="K40">
+        <v>0.48</v>
+      </c>
+      <c r="L40">
+        <v>0.83</v>
+      </c>
+      <c r="M40">
+        <v>0.4999919598</v>
+      </c>
+      <c r="N40">
+        <v>0.2596452261</v>
+      </c>
+      <c r="O40">
+        <v>0.2495658291</v>
+      </c>
+      <c r="P40">
+        <v>0.3395226131</v>
+      </c>
+      <c r="Q40">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R40">
+        <v>0.7</v>
+      </c>
+      <c r="S40">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0.8</v>
+      </c>
+      <c r="C41">
+        <v>0.8</v>
+      </c>
+      <c r="D41">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.74</v>
+      </c>
+      <c r="F41">
+        <v>0.74</v>
+      </c>
+      <c r="G41">
+        <v>0.64</v>
+      </c>
+      <c r="H41">
+        <v>0.64</v>
+      </c>
+      <c r="I41">
+        <v>0.95</v>
+      </c>
+      <c r="J41">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K41">
+        <v>0.5301025126</v>
+      </c>
+      <c r="L41">
+        <v>0.8</v>
+      </c>
+      <c r="M41">
+        <v>0.6001527638</v>
+      </c>
+      <c r="N41">
+        <v>0.3899658291</v>
+      </c>
+      <c r="O41">
+        <v>0.3397768844</v>
+      </c>
+      <c r="P41">
+        <v>0.35</v>
+      </c>
+      <c r="Q41">
+        <v>0.7</v>
+      </c>
+      <c r="R41">
+        <v>0.7</v>
+      </c>
+      <c r="S41">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0.83</v>
+      </c>
+      <c r="C42">
+        <v>0.82</v>
+      </c>
+      <c r="D42">
+        <v>0.79</v>
+      </c>
+      <c r="E42">
+        <v>0.74</v>
+      </c>
+      <c r="F42">
+        <v>0.73</v>
+      </c>
+      <c r="G42">
+        <v>0.6708723618</v>
+      </c>
+      <c r="H42">
+        <v>0.68</v>
+      </c>
+      <c r="I42">
+        <v>0.93</v>
+      </c>
+      <c r="J42">
+        <v>0.61</v>
+      </c>
+      <c r="K42">
+        <v>0.6001643216</v>
+      </c>
+      <c r="L42">
+        <v>0.78</v>
+      </c>
+      <c r="M42">
+        <v>0.5399798995</v>
+      </c>
+      <c r="N42">
+        <v>0.3398110553</v>
+      </c>
+      <c r="O42">
+        <v>0.3197698492</v>
+      </c>
+      <c r="P42">
+        <v>0.39</v>
+      </c>
+      <c r="Q42">
+        <v>0.75</v>
+      </c>
+      <c r="R42">
+        <v>0.72</v>
+      </c>
+      <c r="S42">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.99</v>
+      </c>
+      <c r="B43">
+        <v>0.8</v>
+      </c>
+      <c r="C43">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.75</v>
+      </c>
+      <c r="E43">
+        <v>0.65</v>
+      </c>
+      <c r="F43">
+        <v>0.64</v>
+      </c>
+      <c r="G43">
+        <v>0.5809849246</v>
+      </c>
+      <c r="H43">
+        <v>0.5902512563</v>
+      </c>
+      <c r="I43">
+        <v>0.9</v>
+      </c>
+      <c r="J43">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <v>0.5</v>
+      </c>
+      <c r="L43">
+        <v>0.77</v>
+      </c>
+      <c r="M43">
+        <v>0.4799919598</v>
+      </c>
+      <c r="N43">
+        <v>0.279718593</v>
+      </c>
+      <c r="O43">
+        <v>0.2493869347</v>
+      </c>
+      <c r="P43">
+        <v>0.37</v>
+      </c>
+      <c r="Q43">
+        <v>0.72</v>
+      </c>
+      <c r="R43">
+        <v>0.74</v>
+      </c>
+      <c r="S43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0.77</v>
+      </c>
+      <c r="C44">
+        <v>0.77</v>
+      </c>
+      <c r="D44">
+        <v>0.83</v>
+      </c>
+      <c r="E44">
+        <v>0.7</v>
+      </c>
+      <c r="F44">
+        <v>0.7</v>
+      </c>
+      <c r="G44">
+        <v>0.53</v>
+      </c>
+      <c r="H44">
+        <v>0.53</v>
+      </c>
+      <c r="I44">
+        <v>0.97</v>
+      </c>
+      <c r="J44">
+        <v>0.44</v>
+      </c>
+      <c r="K44">
+        <v>0.44</v>
+      </c>
+      <c r="L44">
+        <v>0.82</v>
+      </c>
+      <c r="M44">
+        <v>0.4798512563</v>
+      </c>
+      <c r="N44">
+        <v>0.3800241206</v>
+      </c>
+      <c r="O44">
+        <v>0.3497723618</v>
+      </c>
+      <c r="P44">
+        <v>0.3094527638</v>
+      </c>
+      <c r="Q44">
+        <v>0.64</v>
+      </c>
+      <c r="R44">
+        <v>0.7</v>
+      </c>
+      <c r="S44">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0.79</v>
+      </c>
+      <c r="C45">
+        <v>0.79</v>
+      </c>
+      <c r="D45">
+        <v>0.84</v>
+      </c>
+      <c r="E45">
+        <v>0.72</v>
+      </c>
+      <c r="F45">
+        <v>0.7109266332</v>
+      </c>
+      <c r="G45">
+        <v>0.6007773869</v>
+      </c>
+      <c r="H45">
+        <v>0.61</v>
+      </c>
+      <c r="I45">
+        <v>0.96</v>
+      </c>
+      <c r="J45">
+        <v>0.51</v>
+      </c>
+      <c r="K45">
+        <v>0.5001035176</v>
+      </c>
+      <c r="L45">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M45">
+        <v>0.5098522613000001</v>
+      </c>
+      <c r="N45">
+        <v>0.4101286432</v>
+      </c>
+      <c r="O45">
+        <v>0.3497648241</v>
+      </c>
+      <c r="P45">
+        <v>0.41</v>
+      </c>
+      <c r="Q45">
+        <v>0.73</v>
+      </c>
+      <c r="R45">
+        <v>0.61</v>
+      </c>
+      <c r="S45">
+        <v>0.6410603015</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0.76</v>
+      </c>
+      <c r="C46">
+        <v>0.76</v>
+      </c>
+      <c r="D46">
+        <v>0.84</v>
+      </c>
+      <c r="E46">
+        <v>0.8</v>
+      </c>
+      <c r="F46">
+        <v>0.79</v>
+      </c>
+      <c r="G46">
+        <v>0.5705221106</v>
+      </c>
+      <c r="H46">
+        <v>0.59</v>
+      </c>
+      <c r="I46">
+        <v>0.97</v>
+      </c>
+      <c r="J46">
+        <v>0.47</v>
+      </c>
+      <c r="K46">
+        <v>0.4602095477</v>
+      </c>
+      <c r="L46">
+        <v>0.86</v>
+      </c>
+      <c r="M46">
+        <v>0.5999929648</v>
+      </c>
+      <c r="N46">
+        <v>0.3399949749</v>
+      </c>
+      <c r="O46">
+        <v>0.3297512563</v>
+      </c>
+      <c r="P46">
+        <v>0.3495050251</v>
+      </c>
+      <c r="Q46">
+        <v>0.63</v>
+      </c>
+      <c r="R46">
+        <v>0.75</v>
+      </c>
+      <c r="S46">
+        <v>0.760801005</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0.82</v>
+      </c>
+      <c r="C47">
+        <v>0.8</v>
+      </c>
+      <c r="D47">
+        <v>0.74</v>
+      </c>
+      <c r="E47">
+        <v>0.67</v>
+      </c>
+      <c r="F47">
+        <v>0.66</v>
+      </c>
+      <c r="G47">
+        <v>0.5108381910000001</v>
+      </c>
+      <c r="H47">
+        <v>0.5101849246</v>
+      </c>
+      <c r="I47">
+        <v>0.91</v>
+      </c>
+      <c r="J47">
+        <v>0.41</v>
+      </c>
+      <c r="K47">
+        <v>0.4001557789</v>
+      </c>
+      <c r="L47">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M47">
+        <v>0.5600246231</v>
+      </c>
+      <c r="N47">
+        <v>0.3900899497</v>
+      </c>
+      <c r="O47">
+        <v>0.3596633166</v>
+      </c>
+      <c r="P47">
+        <v>0.35</v>
+      </c>
+      <c r="Q47">
+        <v>0.59</v>
+      </c>
+      <c r="R47">
+        <v>0.67</v>
+      </c>
+      <c r="S47">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0.77</v>
+      </c>
+      <c r="C48">
+        <v>0.77</v>
+      </c>
+      <c r="D48">
+        <v>0.78</v>
+      </c>
+      <c r="E48">
+        <v>0.7</v>
+      </c>
+      <c r="F48">
+        <v>0.7</v>
+      </c>
+      <c r="G48">
+        <v>0.6008693467</v>
+      </c>
+      <c r="H48">
+        <v>0.61</v>
+      </c>
+      <c r="I48">
+        <v>0.96</v>
+      </c>
+      <c r="J48">
+        <v>0.52</v>
+      </c>
+      <c r="K48">
+        <v>0.5101849246</v>
+      </c>
+      <c r="L48">
+        <v>0.75</v>
+      </c>
+      <c r="M48">
+        <v>0.429839196</v>
+      </c>
+      <c r="N48">
+        <v>0.3300552764</v>
+      </c>
+      <c r="O48">
+        <v>0.349718593</v>
+      </c>
+      <c r="P48">
+        <v>0.42</v>
+      </c>
+      <c r="Q48">
+        <v>0.67</v>
+      </c>
+      <c r="R48">
+        <v>0.53</v>
+      </c>
+      <c r="S48">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0.78</v>
+      </c>
+      <c r="C49">
+        <v>0.78</v>
+      </c>
+      <c r="D49">
+        <v>0.86</v>
+      </c>
+      <c r="E49">
+        <v>0.76</v>
+      </c>
+      <c r="F49">
+        <v>0.7408542714</v>
+      </c>
+      <c r="G49">
+        <v>0.6206658291</v>
+      </c>
+      <c r="H49">
+        <v>0.65</v>
+      </c>
+      <c r="I49">
+        <v>0.92</v>
+      </c>
+      <c r="J49">
+        <v>0.6</v>
+      </c>
+      <c r="K49">
+        <v>0.5801708543</v>
+      </c>
+      <c r="L49">
+        <v>0.8</v>
+      </c>
+      <c r="M49">
+        <v>0.5800522613</v>
+      </c>
+      <c r="N49">
+        <v>0.4300703518</v>
+      </c>
+      <c r="O49">
+        <v>0.3097286432</v>
+      </c>
+      <c r="P49">
+        <v>0.3195256281</v>
+      </c>
+      <c r="Q49">
+        <v>0.71</v>
+      </c>
+      <c r="R49">
+        <v>0.71</v>
+      </c>
+      <c r="S49">
+        <v>0.7309165828999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0.78</v>
+      </c>
+      <c r="C50">
+        <v>0.78</v>
+      </c>
+      <c r="D50">
+        <v>0.85</v>
+      </c>
+      <c r="E50">
+        <v>0.77</v>
+      </c>
+      <c r="F50">
+        <v>0.77</v>
+      </c>
+      <c r="G50">
+        <v>0.6707015075</v>
+      </c>
+      <c r="H50">
+        <v>0.68</v>
+      </c>
+      <c r="I50">
+        <v>0.96</v>
+      </c>
+      <c r="J50">
+        <v>0.51</v>
+      </c>
+      <c r="K50">
+        <v>0.51</v>
+      </c>
+      <c r="L50">
+        <v>0.83</v>
+      </c>
+      <c r="M50">
+        <v>0.5500532663</v>
+      </c>
+      <c r="N50">
+        <v>0.3499809045</v>
+      </c>
+      <c r="O50">
+        <v>0.3797944724</v>
+      </c>
+      <c r="P50">
+        <v>0.38</v>
+      </c>
+      <c r="Q50">
+        <v>0.66</v>
+      </c>
+      <c r="R50">
+        <v>0.75</v>
+      </c>
+      <c r="S50">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.99</v>
+      </c>
+      <c r="B51">
+        <v>0.83</v>
+      </c>
+      <c r="C51">
+        <v>0.84</v>
+      </c>
+      <c r="D51">
+        <v>0.83</v>
+      </c>
+      <c r="E51">
+        <v>0.75</v>
+      </c>
+      <c r="F51">
+        <v>0.74</v>
+      </c>
+      <c r="G51">
+        <v>0.5806834171</v>
+      </c>
+      <c r="H51">
+        <v>0.6</v>
+      </c>
+      <c r="I51">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J51">
+        <v>0.53</v>
+      </c>
+      <c r="K51">
+        <v>0.5201894472</v>
+      </c>
+      <c r="L51">
+        <v>0.85</v>
+      </c>
+      <c r="M51">
+        <v>0.5300180905</v>
+      </c>
+      <c r="N51">
+        <v>0.319919598</v>
+      </c>
+      <c r="O51">
+        <v>0.379798995</v>
+      </c>
+      <c r="P51">
+        <v>0.37</v>
+      </c>
+      <c r="Q51">
+        <v>0.6</v>
+      </c>
+      <c r="R51">
+        <v>0.64</v>
+      </c>
+      <c r="S51">
+        <v>0.6909341709</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.8</v>
+      </c>
+      <c r="D52">
+        <v>0.76</v>
+      </c>
+      <c r="E52">
+        <v>0.7</v>
+      </c>
+      <c r="F52">
+        <v>0.6909698492</v>
+      </c>
+      <c r="G52">
+        <v>0.57</v>
+      </c>
+      <c r="H52">
+        <v>0.57</v>
+      </c>
+      <c r="I52">
+        <v>0.95</v>
+      </c>
+      <c r="J52">
+        <v>0.48</v>
+      </c>
+      <c r="K52">
+        <v>0.48</v>
+      </c>
+      <c r="L52">
+        <v>0.83</v>
+      </c>
+      <c r="M52">
+        <v>0.4699648241</v>
+      </c>
+      <c r="N52">
+        <v>0.2898326633</v>
+      </c>
+      <c r="O52">
+        <v>0.3197688442</v>
+      </c>
+      <c r="P52">
+        <v>0.39</v>
+      </c>
+      <c r="Q52">
+        <v>0.74</v>
+      </c>
+      <c r="R52">
+        <v>0.6</v>
+      </c>
+      <c r="S52">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>0.78</v>
+      </c>
+      <c r="C53">
+        <v>0.78</v>
+      </c>
+      <c r="D53">
+        <v>0.84</v>
+      </c>
+      <c r="E53">
+        <v>0.76</v>
+      </c>
+      <c r="F53">
+        <v>0.76</v>
+      </c>
+      <c r="G53">
+        <v>0.65</v>
+      </c>
+      <c r="H53">
+        <v>0.65</v>
+      </c>
+      <c r="I53">
+        <v>0.92</v>
+      </c>
+      <c r="J53">
+        <v>0.55</v>
+      </c>
+      <c r="K53">
+        <v>0.55</v>
+      </c>
+      <c r="L53">
+        <v>0.87</v>
+      </c>
+      <c r="M53">
+        <v>0.560040201</v>
+      </c>
+      <c r="N53">
+        <v>0.4198492462</v>
+      </c>
+      <c r="O53">
+        <v>0.4397236181</v>
+      </c>
+      <c r="P53">
+        <v>0.4396572864</v>
+      </c>
+      <c r="Q53">
+        <v>0.71</v>
+      </c>
+      <c r="R53">
+        <v>0.66</v>
+      </c>
+      <c r="S53">
+        <v>0.7109266332</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0.77</v>
+      </c>
+      <c r="C54">
+        <v>0.75</v>
+      </c>
+      <c r="D54">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E54">
+        <v>0.72</v>
+      </c>
+      <c r="F54">
+        <v>0.72</v>
+      </c>
+      <c r="G54">
+        <v>0.64</v>
+      </c>
+      <c r="H54">
+        <v>0.64</v>
+      </c>
+      <c r="I54">
+        <v>0.91</v>
+      </c>
+      <c r="J54">
+        <v>0.55</v>
+      </c>
+      <c r="K54">
+        <v>0.5401708543</v>
+      </c>
+      <c r="L54">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0.5200190955</v>
+      </c>
+      <c r="N54">
+        <v>0.3396974874</v>
+      </c>
+      <c r="O54">
+        <v>0.3698135678</v>
+      </c>
+      <c r="P54">
+        <v>0.35</v>
+      </c>
+      <c r="Q54">
+        <v>0.74</v>
+      </c>
+      <c r="R54">
+        <v>0.7</v>
+      </c>
+      <c r="S54">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>0.76</v>
+      </c>
+      <c r="C55">
+        <v>0.76</v>
+      </c>
+      <c r="D55">
+        <v>0.79</v>
+      </c>
+      <c r="E55">
+        <v>0.7</v>
+      </c>
+      <c r="F55">
+        <v>0.7</v>
+      </c>
+      <c r="G55">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H55">
+        <v>0.5400683417</v>
+      </c>
+      <c r="I55">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J55">
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <v>0.5</v>
+      </c>
+      <c r="L55">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M55">
+        <v>0.4998331658</v>
+      </c>
+      <c r="N55">
+        <v>0.2997939698</v>
+      </c>
+      <c r="O55">
+        <v>0.3200050251</v>
+      </c>
+      <c r="P55">
+        <v>0.3395226131</v>
+      </c>
+      <c r="Q55">
+        <v>0.7</v>
+      </c>
+      <c r="R55">
+        <v>0.67</v>
+      </c>
+      <c r="S55">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0.84</v>
+      </c>
+      <c r="C56">
+        <v>0.84</v>
+      </c>
+      <c r="D56">
+        <v>0.75</v>
+      </c>
+      <c r="E56">
+        <v>0.67</v>
+      </c>
+      <c r="F56">
+        <v>0.67</v>
+      </c>
+      <c r="G56">
+        <v>0.55</v>
+      </c>
+      <c r="H56">
+        <v>0.5401432161</v>
+      </c>
+      <c r="I56">
+        <v>0.93</v>
+      </c>
+      <c r="J56">
+        <v>0.47</v>
+      </c>
+      <c r="K56">
+        <v>0.47</v>
+      </c>
+      <c r="L56">
+        <v>0.87</v>
+      </c>
+      <c r="M56">
+        <v>0.5398934673</v>
+      </c>
+      <c r="N56">
+        <v>0.369958794</v>
+      </c>
+      <c r="O56">
+        <v>0.3798844221</v>
+      </c>
+      <c r="P56">
+        <v>0.31</v>
+      </c>
+      <c r="Q56">
+        <v>0.66</v>
+      </c>
+      <c r="R56">
+        <v>0.71</v>
+      </c>
+      <c r="S56">
+        <v>0.6909698492</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.99</v>
+      </c>
+      <c r="B57">
+        <v>0.77</v>
+      </c>
+      <c r="C57">
+        <v>0.78</v>
+      </c>
+      <c r="D57">
+        <v>0.8</v>
+      </c>
+      <c r="E57">
+        <v>0.72</v>
+      </c>
+      <c r="F57">
+        <v>0.7109628141</v>
+      </c>
+      <c r="G57">
+        <v>0.5405788945</v>
+      </c>
+      <c r="H57">
+        <v>0.5801572864</v>
+      </c>
+      <c r="I57">
+        <v>0.93</v>
+      </c>
+      <c r="J57">
+        <v>0.51</v>
+      </c>
+      <c r="K57">
+        <v>0.5001547739</v>
+      </c>
+      <c r="L57">
+        <v>0.79</v>
+      </c>
+      <c r="M57">
+        <v>0.5298653266</v>
+      </c>
+      <c r="N57">
+        <v>0.3798190955</v>
+      </c>
+      <c r="O57">
+        <v>0.3999522613</v>
+      </c>
+      <c r="P57">
+        <v>0.46</v>
+      </c>
+      <c r="Q57">
+        <v>0.78</v>
+      </c>
+      <c r="R57">
+        <v>0.61</v>
+      </c>
+      <c r="S57">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>0.82</v>
+      </c>
+      <c r="C58">
+        <v>0.82</v>
+      </c>
+      <c r="D58">
+        <v>0.74</v>
+      </c>
+      <c r="E58">
+        <v>0.67</v>
+      </c>
+      <c r="F58">
+        <v>0.67</v>
+      </c>
+      <c r="G58">
+        <v>0.6009276381999999</v>
+      </c>
+      <c r="H58">
+        <v>0.62</v>
+      </c>
+      <c r="I58">
+        <v>0.95</v>
+      </c>
+      <c r="J58">
+        <v>0.55</v>
+      </c>
+      <c r="K58">
+        <v>0.55</v>
+      </c>
+      <c r="L58">
+        <v>0.85</v>
+      </c>
+      <c r="M58">
+        <v>0.4098442211</v>
+      </c>
+      <c r="N58">
+        <v>0.2897829146</v>
+      </c>
+      <c r="O58">
+        <v>0.3096442211</v>
+      </c>
+      <c r="P58">
+        <v>0.33</v>
+      </c>
+      <c r="Q58">
+        <v>0.73</v>
+      </c>
+      <c r="R58">
+        <v>0.63</v>
+      </c>
+      <c r="S58">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.99</v>
+      </c>
+      <c r="B59">
+        <v>0.85</v>
+      </c>
+      <c r="C59">
+        <v>0.85</v>
+      </c>
+      <c r="D59">
+        <v>0.78</v>
+      </c>
+      <c r="E59">
+        <v>0.73</v>
+      </c>
+      <c r="F59">
+        <v>0.72</v>
+      </c>
+      <c r="G59">
+        <v>0.6008080402</v>
+      </c>
+      <c r="H59">
+        <v>0.6002869347000001</v>
+      </c>
+      <c r="I59">
+        <v>0.89</v>
+      </c>
+      <c r="J59">
+        <v>0.52</v>
+      </c>
+      <c r="K59">
+        <v>0.510158794</v>
+      </c>
+      <c r="L59">
+        <v>0.8</v>
+      </c>
+      <c r="M59">
+        <v>0.4999035176</v>
+      </c>
+      <c r="N59">
+        <v>0.3699321608</v>
+      </c>
+      <c r="O59">
+        <v>0.3798517588</v>
+      </c>
+      <c r="P59">
+        <v>0.3</v>
+      </c>
+      <c r="Q59">
+        <v>0.65</v>
+      </c>
+      <c r="R59">
+        <v>0.7</v>
+      </c>
+      <c r="S59">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>0.8</v>
+      </c>
+      <c r="C60">
+        <v>0.79</v>
+      </c>
+      <c r="D60">
+        <v>0.8</v>
+      </c>
+      <c r="E60">
+        <v>0.73</v>
+      </c>
+      <c r="F60">
+        <v>0.72</v>
+      </c>
+      <c r="G60">
+        <v>0.5807798995</v>
+      </c>
+      <c r="H60">
+        <v>0.59</v>
+      </c>
+      <c r="I60">
+        <v>0.87</v>
+      </c>
+      <c r="J60">
+        <v>0.47</v>
+      </c>
+      <c r="K60">
+        <v>0.4601859296</v>
+      </c>
+      <c r="L60">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M60">
+        <v>0.4899929648</v>
+      </c>
+      <c r="N60">
+        <v>0.3199798995</v>
+      </c>
+      <c r="O60">
+        <v>0.3397487437</v>
+      </c>
+      <c r="P60">
+        <v>0.34</v>
+      </c>
+      <c r="Q60">
+        <v>0.62</v>
+      </c>
+      <c r="R60">
+        <v>0.67</v>
+      </c>
+      <c r="S60">
+        <v>0.7309165828999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>0.83</v>
+      </c>
+      <c r="C61">
+        <v>0.83</v>
+      </c>
+      <c r="D61">
+        <v>0.85</v>
+      </c>
+      <c r="E61">
+        <v>0.79</v>
+      </c>
+      <c r="F61">
+        <v>0.79</v>
+      </c>
+      <c r="G61">
+        <v>0.67</v>
+      </c>
+      <c r="H61">
+        <v>0.67</v>
+      </c>
+      <c r="I61">
+        <v>0.95</v>
+      </c>
+      <c r="J61">
+        <v>0.55</v>
+      </c>
+      <c r="K61">
+        <v>0.5301758794</v>
+      </c>
+      <c r="L61">
+        <v>0.77</v>
+      </c>
+      <c r="M61">
+        <v>0.4900577889</v>
+      </c>
+      <c r="N61">
+        <v>0.3799748744</v>
+      </c>
+      <c r="O61">
+        <v>0.399758794</v>
+      </c>
+      <c r="P61">
+        <v>0.37</v>
+      </c>
+      <c r="Q61">
+        <v>0.72</v>
+      </c>
+      <c r="R61">
+        <v>0.75</v>
+      </c>
+      <c r="S61">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>0.86</v>
+      </c>
+      <c r="C62">
+        <v>0.85</v>
+      </c>
+      <c r="D62">
+        <v>0.75</v>
+      </c>
+      <c r="E62">
+        <v>0.68</v>
+      </c>
+      <c r="F62">
+        <v>0.67</v>
+      </c>
+      <c r="G62">
+        <v>0.5709115578</v>
+      </c>
+      <c r="H62">
+        <v>0.58</v>
+      </c>
+      <c r="I62">
+        <v>0.91</v>
+      </c>
+      <c r="J62">
+        <v>0.5</v>
+      </c>
+      <c r="K62">
+        <v>0.4801005025</v>
+      </c>
+      <c r="L62">
+        <v>0.82</v>
+      </c>
+      <c r="M62">
+        <v>0.559919598</v>
+      </c>
+      <c r="N62">
+        <v>0.4100663317</v>
+      </c>
+      <c r="O62">
+        <v>0.3296954774</v>
+      </c>
+      <c r="P62">
+        <v>0.41</v>
+      </c>
+      <c r="Q62">
+        <v>0.75</v>
+      </c>
+      <c r="R62">
+        <v>0.68</v>
+      </c>
+      <c r="S62">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.99</v>
+      </c>
+      <c r="B63">
+        <v>0.83</v>
+      </c>
+      <c r="C63">
+        <v>0.83</v>
+      </c>
+      <c r="D63">
+        <v>0.76</v>
+      </c>
+      <c r="E63">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F63">
+        <v>0.6810246231</v>
+      </c>
+      <c r="G63">
+        <v>0.6109155779</v>
+      </c>
+      <c r="H63">
+        <v>0.6102613065</v>
+      </c>
+      <c r="I63">
+        <v>0.9</v>
+      </c>
+      <c r="J63">
+        <v>0.52</v>
+      </c>
+      <c r="K63">
+        <v>0.5101065326999999</v>
+      </c>
+      <c r="L63">
+        <v>0.87</v>
+      </c>
+      <c r="M63">
+        <v>0.5800170854</v>
+      </c>
+      <c r="N63">
+        <v>0.3999537688</v>
+      </c>
+      <c r="O63">
+        <v>0.3296351759</v>
+      </c>
+      <c r="P63">
+        <v>0.37</v>
+      </c>
+      <c r="Q63">
+        <v>0.71</v>
+      </c>
+      <c r="R63">
+        <v>0.59</v>
+      </c>
+      <c r="S63">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.99</v>
+      </c>
+      <c r="B64">
+        <v>0.75</v>
+      </c>
+      <c r="C64">
+        <v>0.76</v>
+      </c>
+      <c r="D64">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E64">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F64">
+        <v>0.67</v>
+      </c>
+      <c r="G64">
+        <v>0.5307778894</v>
+      </c>
+      <c r="H64">
+        <v>0.550118593</v>
+      </c>
+      <c r="I64">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J64">
+        <v>0.51</v>
+      </c>
+      <c r="K64">
+        <v>0.51</v>
+      </c>
+      <c r="L64">
+        <v>0.8</v>
+      </c>
+      <c r="M64">
+        <v>0.4499547739</v>
+      </c>
+      <c r="N64">
+        <v>0.3498864322</v>
+      </c>
+      <c r="O64">
+        <v>0.3797944724</v>
+      </c>
+      <c r="P64">
+        <v>0.3094427136</v>
+      </c>
+      <c r="Q64">
+        <v>0.67</v>
+      </c>
+      <c r="R64">
+        <v>0.72</v>
+      </c>
+      <c r="S64">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.98</v>
+      </c>
+      <c r="B65">
+        <v>0.72</v>
+      </c>
+      <c r="C65">
+        <v>0.74</v>
+      </c>
+      <c r="D65">
+        <v>0.82</v>
+      </c>
+      <c r="E65">
+        <v>0.76</v>
+      </c>
+      <c r="F65">
+        <v>0.7508663316999999</v>
+      </c>
+      <c r="G65">
+        <v>0.5706110553</v>
+      </c>
+      <c r="H65">
+        <v>0.59</v>
+      </c>
+      <c r="I65">
+        <v>0.95</v>
+      </c>
+      <c r="J65">
+        <v>0.51</v>
+      </c>
+      <c r="K65">
+        <v>0.5000778894</v>
+      </c>
+      <c r="L65">
+        <v>0.87</v>
+      </c>
+      <c r="M65">
+        <v>0.4499497487</v>
+      </c>
+      <c r="N65">
+        <v>0.3501005025</v>
+      </c>
+      <c r="O65">
+        <v>0.2996834171</v>
+      </c>
+      <c r="P65">
+        <v>0.33</v>
+      </c>
+      <c r="Q65">
+        <v>0.75</v>
+      </c>
+      <c r="R65">
+        <v>0.68</v>
+      </c>
+      <c r="S65">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>0.85</v>
+      </c>
+      <c r="C66">
+        <v>0.85</v>
+      </c>
+      <c r="D66">
+        <v>0.75</v>
+      </c>
+      <c r="E66">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F66">
+        <v>0.68</v>
+      </c>
+      <c r="G66">
+        <v>0.5508502513</v>
+      </c>
+      <c r="H66">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I66">
+        <v>0.91</v>
+      </c>
+      <c r="J66">
+        <v>0.55</v>
+      </c>
+      <c r="K66">
+        <v>0.5400603015</v>
+      </c>
+      <c r="L66">
+        <v>0.82</v>
+      </c>
+      <c r="M66">
+        <v>0.5199336683</v>
+      </c>
+      <c r="N66">
+        <v>0.3999849246</v>
+      </c>
+      <c r="O66">
+        <v>0.3396180905</v>
+      </c>
+      <c r="P66">
+        <v>0.4</v>
+      </c>
+      <c r="Q66">
+        <v>0.74</v>
+      </c>
+      <c r="R66">
+        <v>0.7</v>
+      </c>
+      <c r="S66">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>0.83</v>
+      </c>
+      <c r="C67">
+        <v>0.82</v>
+      </c>
+      <c r="D67">
+        <v>0.73</v>
+      </c>
+      <c r="E67">
+        <v>0.66</v>
+      </c>
+      <c r="F67">
+        <v>0.6510773869000001</v>
+      </c>
+      <c r="G67">
+        <v>0.5408894472</v>
+      </c>
+      <c r="H67">
+        <v>0.55</v>
+      </c>
+      <c r="I67">
+        <v>0.87</v>
+      </c>
+      <c r="J67">
+        <v>0.4</v>
+      </c>
+      <c r="K67">
+        <v>0.3901708543</v>
+      </c>
+      <c r="L67">
+        <v>0.78</v>
+      </c>
+      <c r="M67">
+        <v>0.5700020101</v>
+      </c>
+      <c r="N67">
+        <v>0.3798190955</v>
+      </c>
+      <c r="O67">
+        <v>0.4299396985</v>
+      </c>
+      <c r="P67">
+        <v>0.4296321608</v>
+      </c>
+      <c r="Q67">
+        <v>0.71</v>
+      </c>
+      <c r="R67">
+        <v>0.64</v>
+      </c>
+      <c r="S67">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>0.79</v>
+      </c>
+      <c r="C68">
+        <v>0.78</v>
+      </c>
+      <c r="D68">
+        <v>0.78</v>
+      </c>
+      <c r="E68">
+        <v>0.67</v>
+      </c>
+      <c r="F68">
+        <v>0.67</v>
+      </c>
+      <c r="G68">
+        <v>0.5308115578</v>
+      </c>
+      <c r="H68">
+        <v>0.55</v>
+      </c>
+      <c r="I68">
+        <v>0.9</v>
+      </c>
+      <c r="J68">
+        <v>0.44</v>
+      </c>
+      <c r="K68">
+        <v>0.4000422111</v>
+      </c>
+      <c r="L68">
+        <v>0.78</v>
+      </c>
+      <c r="M68">
+        <v>0.550080402</v>
+      </c>
+      <c r="N68">
+        <v>0.3697788945</v>
+      </c>
+      <c r="O68">
+        <v>0.3698135678</v>
+      </c>
+      <c r="P68">
+        <v>0.36</v>
+      </c>
+      <c r="Q68">
+        <v>0.72</v>
+      </c>
+      <c r="R68">
+        <v>0.65</v>
+      </c>
+      <c r="S68">
+        <v>0.6809547739</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>0.79</v>
+      </c>
+      <c r="C69">
+        <v>0.79</v>
+      </c>
+      <c r="D69">
+        <v>0.75</v>
+      </c>
+      <c r="E69">
+        <v>0.67</v>
+      </c>
+      <c r="F69">
+        <v>0.67</v>
+      </c>
+      <c r="G69">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H69">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I69">
+        <v>0.91</v>
+      </c>
+      <c r="J69">
+        <v>0.45</v>
+      </c>
+      <c r="K69">
+        <v>0.45</v>
+      </c>
+      <c r="L69">
+        <v>0.78</v>
+      </c>
+      <c r="M69">
+        <v>0.4798628141</v>
+      </c>
+      <c r="N69">
+        <v>0.3700834171</v>
+      </c>
+      <c r="O69">
+        <v>0.359721608</v>
+      </c>
+      <c r="P69">
+        <v>0.3995859296</v>
+      </c>
+      <c r="Q69">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R69">
+        <v>0.66</v>
+      </c>
+      <c r="S69">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>0.84</v>
+      </c>
+      <c r="C70">
+        <v>0.84</v>
+      </c>
+      <c r="D70">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E70">
+        <v>0.72</v>
+      </c>
+      <c r="F70">
+        <v>0.72</v>
+      </c>
+      <c r="G70">
+        <v>0.6007718593</v>
+      </c>
+      <c r="H70">
+        <v>0.6101366834</v>
+      </c>
+      <c r="I70">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J70">
+        <v>0.53</v>
+      </c>
+      <c r="K70">
+        <v>0.5201894472</v>
+      </c>
+      <c r="L70">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M70">
+        <v>0.5199899497</v>
+      </c>
+      <c r="N70">
+        <v>0.3399015075</v>
+      </c>
+      <c r="O70">
+        <v>0.3497959799</v>
+      </c>
+      <c r="P70">
+        <v>0.3194552764</v>
+      </c>
+      <c r="Q70">
+        <v>0.66</v>
+      </c>
+      <c r="R70">
+        <v>0.78</v>
+      </c>
+      <c r="S70">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>0.84</v>
+      </c>
+      <c r="C71">
+        <v>0.83</v>
+      </c>
+      <c r="D71">
+        <v>0.8</v>
+      </c>
+      <c r="E71">
+        <v>0.76</v>
+      </c>
+      <c r="F71">
+        <v>0.76</v>
+      </c>
+      <c r="G71">
+        <v>0.63</v>
+      </c>
+      <c r="H71">
+        <v>0.6201713568</v>
+      </c>
+      <c r="I71">
+        <v>0.93</v>
+      </c>
+      <c r="J71">
+        <v>0.54</v>
+      </c>
+      <c r="K71">
+        <v>0.5201437186</v>
+      </c>
+      <c r="L71">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0.5600100503</v>
+      </c>
+      <c r="N71">
+        <v>0.3097507538</v>
+      </c>
+      <c r="O71">
+        <v>0.2998170854</v>
+      </c>
+      <c r="P71">
+        <v>0.34</v>
+      </c>
+      <c r="Q71">
+        <v>0.73</v>
+      </c>
+      <c r="R71">
+        <v>0.7</v>
+      </c>
+      <c r="S71">
+        <v>0.7209035176</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C72">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D72">
+        <v>0.82</v>
+      </c>
+      <c r="E72">
+        <v>0.71</v>
+      </c>
+      <c r="F72">
+        <v>0.71</v>
+      </c>
+      <c r="G72">
+        <v>0.5908241206</v>
+      </c>
+      <c r="H72">
+        <v>0.590160804</v>
+      </c>
+      <c r="I72">
+        <v>0.93</v>
+      </c>
+      <c r="J72">
+        <v>0.51</v>
+      </c>
+      <c r="K72">
+        <v>0.490181407</v>
+      </c>
+      <c r="L72">
+        <v>0.76</v>
+      </c>
+      <c r="M72">
+        <v>0.5199899497</v>
+      </c>
+      <c r="N72">
+        <v>0.3897889447</v>
+      </c>
+      <c r="O72">
+        <v>0.3597467337</v>
+      </c>
+      <c r="P72">
+        <v>0.2894236181</v>
+      </c>
+      <c r="Q72">
+        <v>0.68</v>
+      </c>
+      <c r="R72">
+        <v>0.75</v>
+      </c>
+      <c r="S72">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>0.85</v>
+      </c>
+      <c r="C73">
+        <v>0.85</v>
+      </c>
+      <c r="D73">
+        <v>0.8</v>
+      </c>
+      <c r="E73">
+        <v>0.73</v>
+      </c>
+      <c r="F73">
+        <v>0.720940201</v>
+      </c>
+      <c r="G73">
+        <v>0.62</v>
+      </c>
+      <c r="H73">
+        <v>0.62</v>
+      </c>
+      <c r="I73">
+        <v>0.97</v>
+      </c>
+      <c r="J73">
+        <v>0.54</v>
+      </c>
+      <c r="K73">
+        <v>0.5301396985</v>
+      </c>
+      <c r="L73">
+        <v>0.85</v>
+      </c>
+      <c r="M73">
+        <v>0.4999236181</v>
+      </c>
+      <c r="N73">
+        <v>0.3199477387</v>
+      </c>
+      <c r="O73">
+        <v>0.3297015075</v>
+      </c>
+      <c r="P73">
+        <v>0.4196231156</v>
+      </c>
+      <c r="Q73">
+        <v>0.7</v>
+      </c>
+      <c r="R73">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S73">
+        <v>0.7108160804</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>0.77</v>
+      </c>
+      <c r="C74">
+        <v>0.77</v>
+      </c>
+      <c r="D74">
+        <v>0.87</v>
+      </c>
+      <c r="E74">
+        <v>0.78</v>
+      </c>
+      <c r="F74">
+        <v>0.78</v>
+      </c>
+      <c r="G74">
+        <v>0.6706276382</v>
+      </c>
+      <c r="H74">
+        <v>0.6802964824</v>
+      </c>
+      <c r="I74">
+        <v>0.9</v>
+      </c>
+      <c r="J74">
+        <v>0.58</v>
+      </c>
+      <c r="K74">
+        <v>0.58</v>
+      </c>
+      <c r="L74">
+        <v>0.74</v>
+      </c>
+      <c r="M74">
+        <v>0.4999376884</v>
+      </c>
+      <c r="N74">
+        <v>0.3998643216</v>
+      </c>
+      <c r="O74">
+        <v>0.3998994975</v>
+      </c>
+      <c r="P74">
+        <v>0.36</v>
+      </c>
+      <c r="Q74">
+        <v>0.73</v>
+      </c>
+      <c r="R74">
+        <v>0.65</v>
+      </c>
+      <c r="S74">
+        <v>0.6709748744</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>0.82</v>
+      </c>
+      <c r="C75">
+        <v>0.82</v>
+      </c>
+      <c r="D75">
+        <v>0.77</v>
+      </c>
+      <c r="E75">
+        <v>0.6507125628</v>
+      </c>
+      <c r="F75">
+        <v>0.6410603015</v>
+      </c>
+      <c r="G75">
+        <v>0.5608869347</v>
+      </c>
+      <c r="H75">
+        <v>0.59</v>
+      </c>
+      <c r="I75">
+        <v>0.96</v>
+      </c>
+      <c r="J75">
+        <v>0.52</v>
+      </c>
+      <c r="K75">
+        <v>0.52</v>
+      </c>
+      <c r="L75">
+        <v>0.77</v>
+      </c>
+      <c r="M75">
+        <v>0.4598211055</v>
+      </c>
+      <c r="N75">
+        <v>0.3096603015</v>
+      </c>
+      <c r="O75">
+        <v>0.3697688442</v>
+      </c>
+      <c r="P75">
+        <v>0.37</v>
+      </c>
+      <c r="Q75">
+        <v>0.7</v>
+      </c>
+      <c r="R75">
+        <v>0.61</v>
+      </c>
+      <c r="S75">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.99</v>
+      </c>
+      <c r="B76">
+        <v>0.88</v>
+      </c>
+      <c r="C76">
+        <v>0.88</v>
+      </c>
+      <c r="D76">
+        <v>0.76</v>
+      </c>
+      <c r="E76">
+        <v>0.71</v>
+      </c>
+      <c r="F76">
+        <v>0.68</v>
+      </c>
+      <c r="G76">
+        <v>0.6008281407</v>
+      </c>
+      <c r="H76">
+        <v>0.64</v>
+      </c>
+      <c r="I76">
+        <v>0.9</v>
+      </c>
+      <c r="J76">
+        <v>0.58</v>
+      </c>
+      <c r="K76">
+        <v>0.58</v>
+      </c>
+      <c r="L76">
+        <v>0.91</v>
+      </c>
+      <c r="M76">
+        <v>0.6600361809</v>
+      </c>
+      <c r="N76">
+        <v>0.3597929648</v>
+      </c>
+      <c r="O76">
+        <v>0.3697839196</v>
+      </c>
+      <c r="P76">
+        <v>0.48</v>
+      </c>
+      <c r="Q76">
+        <v>0.74</v>
+      </c>
+      <c r="R76">
+        <v>0.66</v>
+      </c>
+      <c r="S76">
+        <v>0.6910050250999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>0.86</v>
+      </c>
+      <c r="C77">
+        <v>0.86</v>
+      </c>
+      <c r="D77">
+        <v>0.78</v>
+      </c>
+      <c r="E77">
+        <v>0.74</v>
+      </c>
+      <c r="F77">
+        <v>0.74</v>
+      </c>
+      <c r="G77">
+        <v>0.670838191</v>
+      </c>
+      <c r="H77">
+        <v>0.68</v>
+      </c>
+      <c r="I77">
+        <v>0.92</v>
+      </c>
+      <c r="J77">
+        <v>0.59</v>
+      </c>
+      <c r="K77">
+        <v>0.5300246231</v>
+      </c>
+      <c r="L77">
+        <v>0.79</v>
+      </c>
+      <c r="M77">
+        <v>0.489839196</v>
+      </c>
+      <c r="N77">
+        <v>0.329880402</v>
+      </c>
+      <c r="O77">
+        <v>0.3297271357</v>
+      </c>
+      <c r="P77">
+        <v>0.34</v>
+      </c>
+      <c r="Q77">
+        <v>0.65</v>
+      </c>
+      <c r="R77">
+        <v>0.71</v>
+      </c>
+      <c r="S77">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>0.74</v>
+      </c>
+      <c r="C78">
+        <v>0.74</v>
+      </c>
+      <c r="D78">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E78">
+        <v>0.7006276382</v>
+      </c>
+      <c r="F78">
+        <v>0.7</v>
+      </c>
+      <c r="G78">
+        <v>0.5006834171</v>
+      </c>
+      <c r="H78">
+        <v>0.52</v>
+      </c>
+      <c r="I78">
+        <v>0.98</v>
+      </c>
+      <c r="J78">
+        <v>0.42</v>
+      </c>
+      <c r="K78">
+        <v>0.4102030151</v>
+      </c>
+      <c r="L78">
+        <v>0.71</v>
+      </c>
+      <c r="M78">
+        <v>0.4699427136</v>
+      </c>
+      <c r="N78">
+        <v>0.3801316583</v>
+      </c>
+      <c r="O78">
+        <v>0.4298924623</v>
+      </c>
+      <c r="P78">
+        <v>0.46</v>
+      </c>
+      <c r="Q78">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R78">
+        <v>0.65</v>
+      </c>
+      <c r="S78">
+        <v>0.6608562814</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.99</v>
+      </c>
+      <c r="B79">
+        <v>0.79</v>
+      </c>
+      <c r="C79">
+        <v>0.77</v>
+      </c>
+      <c r="D79">
+        <v>0.74</v>
+      </c>
+      <c r="E79">
+        <v>0.7</v>
+      </c>
+      <c r="F79">
+        <v>0.7</v>
+      </c>
+      <c r="G79">
+        <v>0.5507658291</v>
+      </c>
+      <c r="H79">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I79">
+        <v>0.93</v>
+      </c>
+      <c r="J79">
+        <v>0.42</v>
+      </c>
+      <c r="K79">
+        <v>0.410160804</v>
+      </c>
+      <c r="L79">
+        <v>0.76</v>
+      </c>
+      <c r="M79">
+        <v>0.5699256281</v>
+      </c>
+      <c r="N79">
+        <v>0.3998914573</v>
+      </c>
+      <c r="O79">
+        <v>0.4300110553</v>
+      </c>
+      <c r="P79">
+        <v>0.4</v>
+      </c>
+      <c r="Q79">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R79">
+        <v>0.78</v>
+      </c>
+      <c r="S79">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>0.79</v>
+      </c>
+      <c r="C80">
+        <v>0.79</v>
+      </c>
+      <c r="D80">
+        <v>0.89</v>
+      </c>
+      <c r="E80">
+        <v>0.78</v>
+      </c>
+      <c r="F80">
+        <v>0.75</v>
+      </c>
+      <c r="G80">
+        <v>0.5806155779</v>
+      </c>
+      <c r="H80">
+        <v>0.6000723618</v>
+      </c>
+      <c r="I80">
+        <v>0.96</v>
+      </c>
+      <c r="J80">
+        <v>0.53</v>
+      </c>
+      <c r="K80">
+        <v>0.5201628141</v>
+      </c>
+      <c r="L80">
+        <v>0.85</v>
+      </c>
+      <c r="M80">
+        <v>0.6300346734</v>
+      </c>
+      <c r="N80">
+        <v>0.3698728643</v>
+      </c>
+      <c r="O80">
+        <v>0.3597929648</v>
+      </c>
+      <c r="P80">
+        <v>0.49</v>
+      </c>
+      <c r="Q80">
+        <v>0.78</v>
+      </c>
+      <c r="R80">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S80">
+        <v>0.7108904523</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>0.76</v>
+      </c>
+      <c r="C81">
+        <v>0.75</v>
+      </c>
+      <c r="D81">
+        <v>0.85</v>
+      </c>
+      <c r="E81">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F81">
+        <v>0.8</v>
+      </c>
+      <c r="G81">
+        <v>0.7006231156</v>
+      </c>
+      <c r="H81">
+        <v>0.7102030150999999</v>
+      </c>
+      <c r="I81">
+        <v>0.93</v>
+      </c>
+      <c r="J81">
+        <v>0.53</v>
+      </c>
+      <c r="K81">
+        <v>0.5103788945</v>
+      </c>
+      <c r="L81">
+        <v>0.76</v>
+      </c>
+      <c r="M81">
+        <v>0.5600743719</v>
+      </c>
+      <c r="N81">
+        <v>0.3599728643</v>
+      </c>
+      <c r="O81">
+        <v>0.3898070352</v>
+      </c>
+      <c r="P81">
+        <v>0.37</v>
+      </c>
+      <c r="Q81">
+        <v>0.65</v>
+      </c>
+      <c r="R81">
+        <v>0.66</v>
+      </c>
+      <c r="S81">
+        <v>0.6909698492</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.99</v>
+      </c>
+      <c r="B82">
+        <v>0.8</v>
+      </c>
+      <c r="C82">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D82">
+        <v>0.85</v>
+      </c>
+      <c r="E82">
+        <v>0.7705376884</v>
+      </c>
+      <c r="F82">
+        <v>0.77</v>
+      </c>
+      <c r="G82">
+        <v>0.640701005</v>
+      </c>
+      <c r="H82">
+        <v>0.65</v>
+      </c>
+      <c r="I82">
+        <v>0.96</v>
+      </c>
+      <c r="J82">
+        <v>0.57</v>
+      </c>
+      <c r="K82">
+        <v>0.5601502513</v>
+      </c>
+      <c r="L82">
+        <v>0.85</v>
+      </c>
+      <c r="M82">
+        <v>0.5599939698</v>
+      </c>
+      <c r="N82">
+        <v>0.4000788945</v>
+      </c>
+      <c r="O82">
+        <v>0.3296005025</v>
+      </c>
+      <c r="P82">
+        <v>0.4</v>
+      </c>
+      <c r="Q82">
+        <v>0.7</v>
+      </c>
+      <c r="R82">
+        <v>0.6</v>
+      </c>
+      <c r="S82">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.99</v>
+      </c>
+      <c r="B83">
+        <v>0.77</v>
+      </c>
+      <c r="C83">
+        <v>0.77</v>
+      </c>
+      <c r="D83">
+        <v>0.82</v>
+      </c>
+      <c r="E83">
+        <v>0.72</v>
+      </c>
+      <c r="F83">
+        <v>0.71</v>
+      </c>
+      <c r="G83">
+        <v>0.6208321608</v>
+      </c>
+      <c r="H83">
+        <v>0.64</v>
+      </c>
+      <c r="I83">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J83">
+        <v>0.55</v>
+      </c>
+      <c r="K83">
+        <v>0.55</v>
+      </c>
+      <c r="L83">
+        <v>0.8</v>
+      </c>
+      <c r="M83">
+        <v>0.5599396985</v>
+      </c>
+      <c r="N83">
+        <v>0.4498115578</v>
+      </c>
+      <c r="O83">
+        <v>0.4197738693</v>
+      </c>
+      <c r="P83">
+        <v>0.3394964824</v>
+      </c>
+      <c r="Q83">
+        <v>0.7</v>
+      </c>
+      <c r="R83">
+        <v>0.79</v>
+      </c>
+      <c r="S83">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>0.83</v>
+      </c>
+      <c r="C84">
+        <v>0.83</v>
+      </c>
+      <c r="D84">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E84">
+        <v>0.72</v>
+      </c>
+      <c r="F84">
+        <v>0.72</v>
+      </c>
+      <c r="G84">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H84">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I84">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J84">
+        <v>0.44</v>
+      </c>
+      <c r="K84">
+        <v>0.44</v>
+      </c>
+      <c r="L84">
+        <v>0.85</v>
+      </c>
+      <c r="M84">
+        <v>0.4700100503</v>
+      </c>
+      <c r="N84">
+        <v>0.3700562814</v>
+      </c>
+      <c r="O84">
+        <v>0.449938191</v>
+      </c>
+      <c r="P84">
+        <v>0.43</v>
+      </c>
+      <c r="Q84">
+        <v>0.73</v>
+      </c>
+      <c r="R84">
+        <v>0.59</v>
+      </c>
+      <c r="S84">
+        <v>0.611040201</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>0.83</v>
+      </c>
+      <c r="C85">
+        <v>0.83</v>
+      </c>
+      <c r="D85">
+        <v>0.79</v>
+      </c>
+      <c r="E85">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F85">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G85">
+        <v>0.5707839196</v>
+      </c>
+      <c r="H85">
+        <v>0.6</v>
+      </c>
+      <c r="I85">
+        <v>0.95</v>
+      </c>
+      <c r="J85">
+        <v>0.52</v>
+      </c>
+      <c r="K85">
+        <v>0.52</v>
+      </c>
+      <c r="L85">
+        <v>0.84</v>
+      </c>
+      <c r="M85">
+        <v>0.4899859296</v>
+      </c>
+      <c r="N85">
+        <v>0.3099256281</v>
+      </c>
+      <c r="O85">
+        <v>0.2694914573</v>
+      </c>
+      <c r="P85">
+        <v>0.4</v>
+      </c>
+      <c r="Q85">
+        <v>0.73</v>
+      </c>
+      <c r="R85">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S85">
+        <v>0.7008763819</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.99</v>
+      </c>
+      <c r="B86">
+        <v>0.86</v>
+      </c>
+      <c r="C86">
+        <v>0.85</v>
+      </c>
+      <c r="D86">
+        <v>0.72</v>
+      </c>
+      <c r="E86">
+        <v>0.64</v>
+      </c>
+      <c r="F86">
+        <v>0.64</v>
+      </c>
+      <c r="G86">
+        <v>0.5509020101</v>
+      </c>
+      <c r="H86">
+        <v>0.57</v>
+      </c>
+      <c r="I86">
+        <v>0.9</v>
+      </c>
+      <c r="J86">
+        <v>0.5</v>
+      </c>
+      <c r="K86">
+        <v>0.4901005025</v>
+      </c>
+      <c r="L86">
+        <v>0.82</v>
+      </c>
+      <c r="M86">
+        <v>0.5400603015</v>
+      </c>
+      <c r="N86">
+        <v>0.2798994975</v>
+      </c>
+      <c r="O86">
+        <v>0.2195728643</v>
+      </c>
+      <c r="P86">
+        <v>0.3796105528</v>
+      </c>
+      <c r="Q86">
+        <v>0.73</v>
+      </c>
+      <c r="R86">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>0.84</v>
+      </c>
+      <c r="C87">
+        <v>0.84</v>
+      </c>
+      <c r="D87">
+        <v>0.72</v>
+      </c>
+      <c r="E87">
+        <v>0.64</v>
+      </c>
+      <c r="F87">
+        <v>0.6311075377000001</v>
+      </c>
+      <c r="G87">
+        <v>0.5409125628</v>
+      </c>
+      <c r="H87">
+        <v>0.5501748744</v>
+      </c>
+      <c r="I87">
+        <v>0.92</v>
+      </c>
+      <c r="J87">
+        <v>0.46</v>
+      </c>
+      <c r="K87">
+        <v>0.46</v>
+      </c>
+      <c r="L87">
+        <v>0.82</v>
+      </c>
+      <c r="M87">
+        <v>0.5400452261000001</v>
+      </c>
+      <c r="N87">
+        <v>0.2999065327</v>
+      </c>
+      <c r="O87">
+        <v>0.3096582915</v>
+      </c>
+      <c r="P87">
+        <v>0.42</v>
+      </c>
+      <c r="Q87">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R87">
+        <v>0.65</v>
+      </c>
+      <c r="S87">
+        <v>0.6710090452</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>0.85</v>
+      </c>
+      <c r="C88">
+        <v>0.83</v>
+      </c>
+      <c r="D88">
+        <v>0.83</v>
+      </c>
+      <c r="E88">
+        <v>0.7</v>
+      </c>
+      <c r="F88">
+        <v>0.7</v>
+      </c>
+      <c r="G88">
+        <v>0.580839196</v>
+      </c>
+      <c r="H88">
+        <v>0.59</v>
+      </c>
+      <c r="I88">
+        <v>0.92</v>
+      </c>
+      <c r="J88">
+        <v>0.48</v>
+      </c>
+      <c r="K88">
+        <v>0.48</v>
+      </c>
+      <c r="L88">
+        <v>0.82</v>
+      </c>
+      <c r="M88">
+        <v>0.6100743719</v>
+      </c>
+      <c r="N88">
+        <v>0.4601246231</v>
+      </c>
+      <c r="O88">
+        <v>0.3997889447</v>
+      </c>
+      <c r="P88">
+        <v>0.4296457286</v>
+      </c>
+      <c r="Q88">
+        <v>0.72</v>
+      </c>
+      <c r="R88">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S88">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C89">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D89">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E89">
+        <v>0.73</v>
+      </c>
+      <c r="F89">
+        <v>0.72</v>
+      </c>
+      <c r="G89">
+        <v>0.6208</v>
+      </c>
+      <c r="H89">
+        <v>0.64</v>
+      </c>
+      <c r="I89">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J89">
+        <v>0.52</v>
+      </c>
+      <c r="K89">
+        <v>0.52</v>
+      </c>
+      <c r="L89">
+        <v>0.79</v>
+      </c>
+      <c r="M89">
+        <v>0.4698844221</v>
+      </c>
+      <c r="N89">
+        <v>0.3199175879</v>
+      </c>
+      <c r="O89">
+        <v>0.3098673367</v>
+      </c>
+      <c r="P89">
+        <v>0.3896572864</v>
+      </c>
+      <c r="Q89">
+        <v>0.76</v>
+      </c>
+      <c r="R89">
+        <v>0.58</v>
+      </c>
+      <c r="S89">
+        <v>0.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sim1results.xlsx
+++ b/sim1results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5646,6 +5646,714 @@
         <v>0.61</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.98</v>
+      </c>
+      <c r="B90">
+        <v>0.86</v>
+      </c>
+      <c r="C90">
+        <v>0.86</v>
+      </c>
+      <c r="D90">
+        <v>0.79</v>
+      </c>
+      <c r="E90">
+        <v>0.68</v>
+      </c>
+      <c r="F90">
+        <v>0.68</v>
+      </c>
+      <c r="G90">
+        <v>0.5608663317</v>
+      </c>
+      <c r="H90">
+        <v>0.57</v>
+      </c>
+      <c r="I90">
+        <v>0.92</v>
+      </c>
+      <c r="J90">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K90">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L90">
+        <v>0.83</v>
+      </c>
+      <c r="M90">
+        <v>0.5499221106</v>
+      </c>
+      <c r="N90">
+        <v>0.3898693467</v>
+      </c>
+      <c r="O90">
+        <v>0.359718593</v>
+      </c>
+      <c r="P90">
+        <v>0.4697160804</v>
+      </c>
+      <c r="Q90">
+        <v>0.76</v>
+      </c>
+      <c r="R90">
+        <v>0.68</v>
+      </c>
+      <c r="S90">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.98</v>
+      </c>
+      <c r="B91">
+        <v>0.84</v>
+      </c>
+      <c r="C91">
+        <v>0.86</v>
+      </c>
+      <c r="D91">
+        <v>0.83</v>
+      </c>
+      <c r="E91">
+        <v>0.77</v>
+      </c>
+      <c r="F91">
+        <v>0.76</v>
+      </c>
+      <c r="G91">
+        <v>0.5806613065</v>
+      </c>
+      <c r="H91">
+        <v>0.59</v>
+      </c>
+      <c r="I91">
+        <v>0.93</v>
+      </c>
+      <c r="J91">
+        <v>0.53</v>
+      </c>
+      <c r="K91">
+        <v>0.5200829146</v>
+      </c>
+      <c r="L91">
+        <v>0.9</v>
+      </c>
+      <c r="M91">
+        <v>0.6000552764</v>
+      </c>
+      <c r="N91">
+        <v>0.3598462312</v>
+      </c>
+      <c r="O91">
+        <v>0.3796934673</v>
+      </c>
+      <c r="P91">
+        <v>0.5</v>
+      </c>
+      <c r="Q91">
+        <v>0.76</v>
+      </c>
+      <c r="R91">
+        <v>0.62</v>
+      </c>
+      <c r="S91">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C92">
+        <v>0.8</v>
+      </c>
+      <c r="D92">
+        <v>0.85</v>
+      </c>
+      <c r="E92">
+        <v>0.78</v>
+      </c>
+      <c r="F92">
+        <v>0.760801005</v>
+      </c>
+      <c r="G92">
+        <v>0.6005386935</v>
+      </c>
+      <c r="H92">
+        <v>0.64</v>
+      </c>
+      <c r="I92">
+        <v>0.93</v>
+      </c>
+      <c r="J92">
+        <v>0.53</v>
+      </c>
+      <c r="K92">
+        <v>0.53</v>
+      </c>
+      <c r="L92">
+        <v>0.85</v>
+      </c>
+      <c r="M92">
+        <v>0.5599798995</v>
+      </c>
+      <c r="N92">
+        <v>0.3498894472</v>
+      </c>
+      <c r="O92">
+        <v>0.3698341709</v>
+      </c>
+      <c r="P92">
+        <v>0.41</v>
+      </c>
+      <c r="Q92">
+        <v>0.7</v>
+      </c>
+      <c r="R92">
+        <v>0.67</v>
+      </c>
+      <c r="S92">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.99</v>
+      </c>
+      <c r="B93">
+        <v>0.79</v>
+      </c>
+      <c r="C93">
+        <v>0.8</v>
+      </c>
+      <c r="D93">
+        <v>0.77</v>
+      </c>
+      <c r="E93">
+        <v>0.73</v>
+      </c>
+      <c r="F93">
+        <v>0.71</v>
+      </c>
+      <c r="G93">
+        <v>0.6008030151</v>
+      </c>
+      <c r="H93">
+        <v>0.62</v>
+      </c>
+      <c r="I93">
+        <v>0.92</v>
+      </c>
+      <c r="J93">
+        <v>0.53</v>
+      </c>
+      <c r="K93">
+        <v>0.53</v>
+      </c>
+      <c r="L93">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M93">
+        <v>0.4699020101</v>
+      </c>
+      <c r="N93">
+        <v>0.3198115578</v>
+      </c>
+      <c r="O93">
+        <v>0.3898040201</v>
+      </c>
+      <c r="P93">
+        <v>0.38</v>
+      </c>
+      <c r="Q93">
+        <v>0.65</v>
+      </c>
+      <c r="R93">
+        <v>0.59</v>
+      </c>
+      <c r="S93">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.99</v>
+      </c>
+      <c r="B94">
+        <v>0.83</v>
+      </c>
+      <c r="C94">
+        <v>0.83</v>
+      </c>
+      <c r="D94">
+        <v>0.78</v>
+      </c>
+      <c r="E94">
+        <v>0.71</v>
+      </c>
+      <c r="F94">
+        <v>0.71</v>
+      </c>
+      <c r="G94">
+        <v>0.58</v>
+      </c>
+      <c r="H94">
+        <v>0.5700663317</v>
+      </c>
+      <c r="I94">
+        <v>0.96</v>
+      </c>
+      <c r="J94">
+        <v>0.52</v>
+      </c>
+      <c r="K94">
+        <v>0.5000562814</v>
+      </c>
+      <c r="L94">
+        <v>0.82</v>
+      </c>
+      <c r="M94">
+        <v>0.5498894472</v>
+      </c>
+      <c r="N94">
+        <v>0.3799170854</v>
+      </c>
+      <c r="O94">
+        <v>0.3096879397</v>
+      </c>
+      <c r="P94">
+        <v>0.43</v>
+      </c>
+      <c r="Q94">
+        <v>0.8</v>
+      </c>
+      <c r="R94">
+        <v>0.68</v>
+      </c>
+      <c r="S94">
+        <v>0.6910050250999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>0.84</v>
+      </c>
+      <c r="C95">
+        <v>0.84</v>
+      </c>
+      <c r="D95">
+        <v>0.84</v>
+      </c>
+      <c r="E95">
+        <v>0.75</v>
+      </c>
+      <c r="F95">
+        <v>0.7408919598</v>
+      </c>
+      <c r="G95">
+        <v>0.650741206</v>
+      </c>
+      <c r="H95">
+        <v>0.6601854271000001</v>
+      </c>
+      <c r="I95">
+        <v>0.93</v>
+      </c>
+      <c r="J95">
+        <v>0.55</v>
+      </c>
+      <c r="K95">
+        <v>0.5301482412</v>
+      </c>
+      <c r="L95">
+        <v>0.84</v>
+      </c>
+      <c r="M95">
+        <v>0.4899854271</v>
+      </c>
+      <c r="N95">
+        <v>0.2898326633</v>
+      </c>
+      <c r="O95">
+        <v>0.3596939698</v>
+      </c>
+      <c r="P95">
+        <v>0.3895673367</v>
+      </c>
+      <c r="Q95">
+        <v>0.65</v>
+      </c>
+      <c r="R95">
+        <v>0.67</v>
+      </c>
+      <c r="S95">
+        <v>0.7009487437</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>0.79</v>
+      </c>
+      <c r="C96">
+        <v>0.78</v>
+      </c>
+      <c r="D96">
+        <v>0.75</v>
+      </c>
+      <c r="E96">
+        <v>0.65</v>
+      </c>
+      <c r="F96">
+        <v>0.64</v>
+      </c>
+      <c r="G96">
+        <v>0.5008080402</v>
+      </c>
+      <c r="H96">
+        <v>0.53</v>
+      </c>
+      <c r="I96">
+        <v>0.93</v>
+      </c>
+      <c r="J96">
+        <v>0.44</v>
+      </c>
+      <c r="K96">
+        <v>0.44</v>
+      </c>
+      <c r="L96">
+        <v>0.8</v>
+      </c>
+      <c r="M96">
+        <v>0.5299949749</v>
+      </c>
+      <c r="N96">
+        <v>0.3900623116</v>
+      </c>
+      <c r="O96">
+        <v>0.319678392</v>
+      </c>
+      <c r="P96">
+        <v>0.3395376884</v>
+      </c>
+      <c r="Q96">
+        <v>0.71</v>
+      </c>
+      <c r="R96">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S96">
+        <v>0.6908994975</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>0.83</v>
+      </c>
+      <c r="C97">
+        <v>0.83</v>
+      </c>
+      <c r="D97">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E97">
+        <v>0.77</v>
+      </c>
+      <c r="F97">
+        <v>0.76</v>
+      </c>
+      <c r="G97">
+        <v>0.6507075377</v>
+      </c>
+      <c r="H97">
+        <v>0.67</v>
+      </c>
+      <c r="I97">
+        <v>0.91</v>
+      </c>
+      <c r="J97">
+        <v>0.54</v>
+      </c>
+      <c r="K97">
+        <v>0.5201165829</v>
+      </c>
+      <c r="L97">
+        <v>0.84</v>
+      </c>
+      <c r="M97">
+        <v>0.5299356784</v>
+      </c>
+      <c r="N97">
+        <v>0.3197698492</v>
+      </c>
+      <c r="O97">
+        <v>0.2896190955</v>
+      </c>
+      <c r="P97">
+        <v>0.3695763819</v>
+      </c>
+      <c r="Q97">
+        <v>0.74</v>
+      </c>
+      <c r="R97">
+        <v>0.67</v>
+      </c>
+      <c r="S97">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.99</v>
+      </c>
+      <c r="B98">
+        <v>0.88</v>
+      </c>
+      <c r="C98">
+        <v>0.89</v>
+      </c>
+      <c r="D98">
+        <v>0.77</v>
+      </c>
+      <c r="E98">
+        <v>0.64</v>
+      </c>
+      <c r="F98">
+        <v>0.63</v>
+      </c>
+      <c r="G98">
+        <v>0.5409723618</v>
+      </c>
+      <c r="H98">
+        <v>0.5401984925</v>
+      </c>
+      <c r="I98">
+        <v>0.91</v>
+      </c>
+      <c r="J98">
+        <v>0.5</v>
+      </c>
+      <c r="K98">
+        <v>0.5</v>
+      </c>
+      <c r="L98">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M98">
+        <v>0.5500844221</v>
+      </c>
+      <c r="N98">
+        <v>0.3398080402</v>
+      </c>
+      <c r="O98">
+        <v>0.3696829146</v>
+      </c>
+      <c r="P98">
+        <v>0.4797361809</v>
+      </c>
+      <c r="Q98">
+        <v>0.72</v>
+      </c>
+      <c r="R98">
+        <v>0.7</v>
+      </c>
+      <c r="S98">
+        <v>0.6908994975</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.99</v>
+      </c>
+      <c r="B99">
+        <v>0.83</v>
+      </c>
+      <c r="C99">
+        <v>0.84</v>
+      </c>
+      <c r="D99">
+        <v>0.77</v>
+      </c>
+      <c r="E99">
+        <v>0.72</v>
+      </c>
+      <c r="F99">
+        <v>0.7109266332</v>
+      </c>
+      <c r="G99">
+        <v>0.5106552764</v>
+      </c>
+      <c r="H99">
+        <v>0.52</v>
+      </c>
+      <c r="I99">
+        <v>0.95</v>
+      </c>
+      <c r="J99">
+        <v>0.49</v>
+      </c>
+      <c r="K99">
+        <v>0.4699733668</v>
+      </c>
+      <c r="L99">
+        <v>0.83</v>
+      </c>
+      <c r="M99">
+        <v>0.449841206</v>
+      </c>
+      <c r="N99">
+        <v>0.2798030151</v>
+      </c>
+      <c r="O99">
+        <v>0.2997603015</v>
+      </c>
+      <c r="P99">
+        <v>0.38</v>
+      </c>
+      <c r="Q99">
+        <v>0.73</v>
+      </c>
+      <c r="R99">
+        <v>0.68</v>
+      </c>
+      <c r="S99">
+        <v>0.7109266332</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>0.79</v>
+      </c>
+      <c r="C100">
+        <v>0.79</v>
+      </c>
+      <c r="D100">
+        <v>0.8</v>
+      </c>
+      <c r="E100">
+        <v>0.74</v>
+      </c>
+      <c r="F100">
+        <v>0.74</v>
+      </c>
+      <c r="G100">
+        <v>0.6307859296</v>
+      </c>
+      <c r="H100">
+        <v>0.64</v>
+      </c>
+      <c r="I100">
+        <v>0.95</v>
+      </c>
+      <c r="J100">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K100">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L100">
+        <v>0.88</v>
+      </c>
+      <c r="M100">
+        <v>0.479961809</v>
+      </c>
+      <c r="N100">
+        <v>0.3298738693</v>
+      </c>
+      <c r="O100">
+        <v>0.369839196</v>
+      </c>
+      <c r="P100">
+        <v>0.4</v>
+      </c>
+      <c r="Q100">
+        <v>0.78</v>
+      </c>
+      <c r="R100">
+        <v>0.63</v>
+      </c>
+      <c r="S100">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>0.82</v>
+      </c>
+      <c r="C101">
+        <v>0.8</v>
+      </c>
+      <c r="D101">
+        <v>0.76</v>
+      </c>
+      <c r="E101">
+        <v>0.68</v>
+      </c>
+      <c r="F101">
+        <v>0.68</v>
+      </c>
+      <c r="G101">
+        <v>0.6009</v>
+      </c>
+      <c r="H101">
+        <v>0.6002869347000001</v>
+      </c>
+      <c r="I101">
+        <v>0.89</v>
+      </c>
+      <c r="J101">
+        <v>0.52</v>
+      </c>
+      <c r="K101">
+        <v>0.5101326633</v>
+      </c>
+      <c r="L101">
+        <v>0.85</v>
+      </c>
+      <c r="M101">
+        <v>0.5200241206</v>
+      </c>
+      <c r="N101">
+        <v>0.349760804</v>
+      </c>
+      <c r="O101">
+        <v>0.3897477387</v>
+      </c>
+      <c r="P101">
+        <v>0.4</v>
+      </c>
+      <c r="Q101">
+        <v>0.71</v>
+      </c>
+      <c r="R101">
+        <v>0.72</v>
+      </c>
+      <c r="S101">
+        <v>0.7807834171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
